--- a/medicine/Enfance/Jérôme_Doucet/Jérôme_Doucet.xlsx
+++ b/medicine/Enfance/Jérôme_Doucet/Jérôme_Doucet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>J%C3%A9r%C3%B4me_Doucet</t>
+          <t>Jérôme_Doucet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jérôme Doucet, né à Lyon le 5 mars 1865 et mort à Paris le 1er février 1957, est un écrivain, collectionneur, bibliophile et journaliste français, auteur de comédies, de poésies, de contes, de livres pour la jeunesse et d'ouvrages d'art.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>J%C3%A9r%C3%B4me_Doucet</t>
+          <t>Jérôme_Doucet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jérôme Doucet est le fils de Théophile Doucet, professeur de mathématiques, et d'Élise Baudesson de Richebourg et le petit-neveu de Joseph François Dupleix. À la suite d’une grave maladie, il ne présente pas le concours de l'École polytechnique et se consacre au journalisme.
 Il débute au Républicain du Rhône. Rédacteur en chef du Publicateur, journal de Louviers, il fut appelé vers 1895 par René Baschet, futur repreneur de L'Illustration, pour participer à la direction (sous le titre de secrétaire de la rédaction) de la Revue illustrée. Il occupa ce poste jusqu'en 1901, puis brièvement en 1906. Bimensuel de format magazine, fondé en 1885 par Ludovic Baschet, le père de René, la Revue illustrée parut jusqu'en 1912. Chaque numéro d'une trentaine de pages sur papier glacé comprenait un article sur les célébrités de l'époque : peintres, aristocrates, diplomates, acteurs de théâtre ; des  articles de voyage ou sur l’actualité mondaine, le tout illustré de photographies et gravures. Elle faisait aussi appel à des écrivains tels que Guy de Maupassant, Alphonse Daudet, Jean Lorrain, Paul-Jean Toulet et Raoul Ponchon, qui lui confiaient nouvelles ou poèmes.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>J%C3%A9r%C3%B4me_Doucet</t>
+          <t>Jérôme_Doucet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(liste non exhaustive)
 Le Mal des Planches. Comédie en un acte, en vers, Rouen, de l'Imprimerie Cagniard. (1892)
